--- a/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoDfVUwFC/Elast of Demand for Veh Use wrt Fuel Cost.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoDfVUwFC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13935"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="Rail and Ships" sheetId="3" r:id="rId4"/>
     <sheet name="EoDfVUwFC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Elasticity of Demand for Air Travel WRT to Price</t>
   </si>
@@ -233,16 +238,25 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
     <t>aircraft</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This variable is also known as the "Fuel Economy Rebound Effect" or "Fuel Cost Rebound Effect." It is the change</t>
+  </si>
+  <si>
+    <t>in VMT as a fraction of the change in fuel cost. E.g. for a 1% increase in fuel cost per mile, VMT changes by -0.1%.</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,13 +331,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -334,6 +348,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -594,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,9 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -749,64 +768,79 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -988,14 +1022,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1259,7 +1293,9 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1267,19 +1303,19 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>71</v>
+      <c r="B1" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <f>'LDVs and HDVs'!B6</f>
         <v>-0.1</v>
       </c>
@@ -1295,9 +1331,9 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="11">
+        <v>71</v>
+      </c>
+      <c r="B4" s="9">
         <f>Aircraft!B7</f>
         <v>-0.29360000000000003</v>
       </c>
@@ -1324,7 +1360,7 @@
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>B2</f>
         <v>-0.1</v>
       </c>
